--- a/src/main/webapp/upload/IMPORTCARINFO.xlsx
+++ b/src/main/webapp/upload/IMPORTCARINFO.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>序号</t>
   </si>
@@ -148,14 +148,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -170,158 +164,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,194 +182,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -544,251 +206,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -800,63 +220,21 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
-      <color rgb="0099CCFF"/>
+      <color rgb="FF99CCFF"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1188,15 +566,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
@@ -1242,7 +619,7 @@
     <col min="44" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1" spans="1:43">
+    <row r="1" spans="1:43" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1373,7 +750,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="7:41">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.15">
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -1399,7 +776,7 @@
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
     </row>
-    <row r="3" spans="2:41">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.15">
       <c r="B3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -1427,8 +804,8 @@
       <c r="AO3" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/webapp/upload/IMPORTCARINFO.xlsx
+++ b/src/main/webapp/upload/IMPORTCARINFO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>序号</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>车辆类型(以机动车行驶证为主)</t>
+  </si>
+  <si>
+    <t>是否支持出租车发票打印</t>
   </si>
 </sst>
 </file>
@@ -567,59 +570,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="AR2" sqref="AR2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.75" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="21.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.77734375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.77734375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.44140625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.88671875" style="1" customWidth="1"/>
     <col min="16" max="16" width="17" style="1" customWidth="1"/>
-    <col min="17" max="17" width="22.5" style="1" customWidth="1"/>
-    <col min="18" max="20" width="23.75" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.375" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.75" style="1" customWidth="1"/>
-    <col min="23" max="23" width="16.5" style="1" customWidth="1"/>
-    <col min="24" max="24" width="15.375" style="1" customWidth="1"/>
-    <col min="25" max="25" width="19.25" style="1" customWidth="1"/>
-    <col min="26" max="26" width="20.25" style="1" customWidth="1"/>
-    <col min="27" max="27" width="16.5" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15.375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="20.625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="14.75" style="1" customWidth="1"/>
-    <col min="31" max="31" width="23.75" style="1" customWidth="1"/>
-    <col min="32" max="32" width="19.75" style="1" customWidth="1"/>
-    <col min="33" max="33" width="21.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.44140625" style="1" customWidth="1"/>
+    <col min="18" max="20" width="23.77734375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.77734375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.44140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15.33203125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="19.21875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="20.21875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="16.44140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="15.33203125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="20.6640625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="14.77734375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="23.77734375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="19.77734375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="21.109375" style="1" customWidth="1"/>
     <col min="34" max="34" width="21" style="1" customWidth="1"/>
-    <col min="35" max="35" width="22.5" style="1" customWidth="1"/>
+    <col min="35" max="35" width="22.44140625" style="1" customWidth="1"/>
     <col min="36" max="36" width="29" style="1" customWidth="1"/>
-    <col min="37" max="37" width="25.625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="22.125" style="1" customWidth="1"/>
-    <col min="39" max="39" width="27.375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="25.75" style="1" customWidth="1"/>
-    <col min="41" max="41" width="22.125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="23.625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="32.125" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="9" style="1"/>
+    <col min="37" max="37" width="25.6640625" style="1" customWidth="1"/>
+    <col min="38" max="38" width="22.109375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="27.33203125" style="1" customWidth="1"/>
+    <col min="40" max="40" width="25.77734375" style="1" customWidth="1"/>
+    <col min="41" max="41" width="22.109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="23.6640625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="32.109375" style="1" customWidth="1"/>
+    <col min="44" max="44" width="25.44140625" style="1" customWidth="1"/>
+    <col min="45" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -749,8 +753,11 @@
       <c r="AQ1" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="AR1" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -776,7 +783,7 @@
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -805,6 +812,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AR1048576">
+      <formula1>"是,否"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/src/main/webapp/upload/IMPORTCARINFO.xlsx
+++ b/src/main/webapp/upload/IMPORTCARINFO.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8520"/>
+    <workbookView windowWidth="20490" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,13 @@
     <t>状态</t>
   </si>
   <si>
-    <t>供应商</t>
+    <t>合作商</t>
+  </si>
+  <si>
+    <t>品牌</t>
   </si>
   <si>
     <t>车型</t>
-  </si>
-  <si>
-    <t>具体车型</t>
   </si>
   <si>
     <t>购买日期</t>
@@ -151,8 +151,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -167,12 +173,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -185,8 +337,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -209,9 +547,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -223,14 +803,61 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <mruColors>
-      <color rgb="FF99CCFF"/>
+      <color rgb="0099CCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -564,66 +1191,66 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AR3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="13.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.77734375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="21.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.4416666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1083333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.4416666666667" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.4416666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.775" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.2166666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.3333333333333" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.775" style="1" customWidth="1"/>
+    <col min="12" max="12" width="22.775" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.6666666666667" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.4416666666667" style="1" customWidth="1"/>
+    <col min="15" max="15" width="21.8833333333333" style="1" customWidth="1"/>
     <col min="16" max="16" width="17" style="1" customWidth="1"/>
-    <col min="17" max="17" width="22.44140625" style="1" customWidth="1"/>
-    <col min="18" max="20" width="23.77734375" style="1" customWidth="1"/>
-    <col min="21" max="21" width="13.33203125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="14.77734375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="16.44140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="19.21875" style="1" customWidth="1"/>
-    <col min="26" max="26" width="20.21875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="16.44140625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="15.33203125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="20.6640625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="14.77734375" style="1" customWidth="1"/>
-    <col min="31" max="31" width="23.77734375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="19.77734375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="21.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.4416666666667" style="1" customWidth="1"/>
+    <col min="18" max="20" width="23.775" style="1" customWidth="1"/>
+    <col min="21" max="21" width="13.3333333333333" style="1" customWidth="1"/>
+    <col min="22" max="22" width="14.775" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.4416666666667" style="1" customWidth="1"/>
+    <col min="24" max="24" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="25" max="25" width="19.2166666666667" style="1" customWidth="1"/>
+    <col min="26" max="26" width="20.2166666666667" style="1" customWidth="1"/>
+    <col min="27" max="27" width="16.4416666666667" style="1" customWidth="1"/>
+    <col min="28" max="28" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="29" max="29" width="20.6666666666667" style="1" customWidth="1"/>
+    <col min="30" max="30" width="14.775" style="1" customWidth="1"/>
+    <col min="31" max="31" width="23.775" style="1" customWidth="1"/>
+    <col min="32" max="32" width="19.775" style="1" customWidth="1"/>
+    <col min="33" max="33" width="21.1083333333333" style="1" customWidth="1"/>
     <col min="34" max="34" width="21" style="1" customWidth="1"/>
-    <col min="35" max="35" width="22.44140625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="22.4416666666667" style="1" customWidth="1"/>
     <col min="36" max="36" width="29" style="1" customWidth="1"/>
-    <col min="37" max="37" width="25.6640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="22.109375" style="1" customWidth="1"/>
-    <col min="39" max="39" width="27.33203125" style="1" customWidth="1"/>
-    <col min="40" max="40" width="25.77734375" style="1" customWidth="1"/>
-    <col min="41" max="41" width="22.109375" style="1" customWidth="1"/>
-    <col min="42" max="42" width="23.6640625" style="1" customWidth="1"/>
-    <col min="43" max="43" width="32.109375" style="1" customWidth="1"/>
-    <col min="44" max="44" width="25.44140625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="25.6666666666667" style="1" customWidth="1"/>
+    <col min="38" max="38" width="22.1083333333333" style="1" customWidth="1"/>
+    <col min="39" max="39" width="27.3333333333333" style="1" customWidth="1"/>
+    <col min="40" max="40" width="25.775" style="1" customWidth="1"/>
+    <col min="41" max="41" width="22.1083333333333" style="1" customWidth="1"/>
+    <col min="42" max="42" width="23.6666666666667" style="1" customWidth="1"/>
+    <col min="43" max="43" width="32.1083333333333" style="1" customWidth="1"/>
+    <col min="44" max="44" width="25.4416666666667" style="1" customWidth="1"/>
     <col min="45" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="20.25" customHeight="1" spans="1:44">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -757,7 +1384,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="7:41">
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -783,7 +1410,7 @@
       <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:41">
       <c r="B3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -811,13 +1438,13 @@
       <c r="AO3" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AR1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>